--- a/PER_TE.001_TestData_Hire an Employee_21B.xlsx
+++ b/PER_TE.001_TestData_Hire an Employee_21B.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud Test Automation\GNB\Scripts\Project Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0D695F-4CF4-4C14-9E8B-592141046AEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EBB645-BBAA-4400-949E-3D491DDB3E94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3444" windowWidth="17280" windowHeight="8916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input_Value" sheetId="3" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>UserName</t>
   </si>
@@ -193,12 +193,6 @@
     <t>s</t>
   </si>
   <si>
-    <t>https://edrx.login.us2.oraclecloud.com/</t>
-  </si>
-  <si>
-    <t>IBM_IMPLEMENTATION_USER</t>
-  </si>
-  <si>
     <t>Watson Enterprises United States</t>
   </si>
   <si>
@@ -230,9 +224,6 @@
   </si>
   <si>
     <t>Street4</t>
-  </si>
-  <si>
-    <t>Oracle123</t>
   </si>
   <si>
     <t>LowWait</t>
@@ -829,68 +820,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG2" sqref="AG2"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2:AD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="7" width="8.7265625"/>
-    <col min="8" max="8" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1796875" style="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.1796875" style="11" customWidth="1"/>
-    <col min="11" max="11" width="28.90625" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.1796875" style="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.81640625" style="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.81640625" style="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="6.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.21875" style="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.21875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="28.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.21875" style="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.77734375" style="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.77734375" style="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="6.77734375" style="11" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10" style="11" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="17" max="17" width="10" style="11" customWidth="1"/>
-    <col min="18" max="18" width="12.08984375" style="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.109375" style="11" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="19" max="19" width="18" style="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.453125" style="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="18.453125" style="11" customWidth="1"/>
-    <col min="22" max="22" width="19.1796875" style="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="18.90625" style="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="17.54296875" style="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="18.44140625" style="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="18.44140625" style="11" customWidth="1"/>
+    <col min="22" max="22" width="19.21875" style="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="18.88671875" style="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="17.5546875" style="11" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="25" max="25" width="18" style="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.453125" style="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="18.44140625" style="11" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="27" max="27" width="10" style="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="42.81640625" style="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="26.26953125" style="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="12.1796875" style="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="24.08984375" style="11" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="9.81640625" style="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="12.81640625" style="11" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="13.81640625" style="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="45" width="12.81640625" style="11" customWidth="1" collapsed="1"/>
-    <col min="46" max="16384" width="8.81640625" style="11"/>
+    <col min="28" max="28" width="42.77734375" style="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="26.21875" style="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="12.21875" style="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="24.109375" style="11" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="9.77734375" style="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="12.77734375" style="11" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="13.77734375" style="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="45" width="12.77734375" style="11" customWidth="1" collapsed="1"/>
+    <col min="46" max="16384" width="8.77734375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="H1" s="20" t="s">
         <v>43</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>46</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>4</v>
@@ -917,7 +907,7 @@
         <v>17</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R1" s="9" t="s">
         <v>18</v>
@@ -957,7 +947,7 @@
         <v>3</v>
       </c>
       <c r="AE1" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AF1" s="12"/>
       <c r="AG1" s="12"/>
@@ -974,7 +964,7 @@
       <c r="AR1" s="12"/>
       <c r="AS1" s="12"/>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3</v>
       </c>
@@ -1000,75 +990,69 @@
         <v>120</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q2" s="2">
         <v>10001</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="U2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Z2" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA2" s="13"/>
-      <c r="AB2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
       <c r="AE2" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AH2" s="14"/>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
       <c r="J15" s="11" t="s">
         <v>24</v>
       </c>
@@ -1090,11 +1074,10 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="V2" r:id="rId1" xr:uid="{A7A3DBE6-5D6B-421A-AF73-EF0701717859}"/>
-    <hyperlink ref="AB2" r:id="rId2" xr:uid="{06AC7797-8D2B-4DF0-8727-92A69EFDFD30}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1106,12 +1089,12 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1127,7 +1110,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
